--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -165,9 +165,6 @@
     <t>GitHub (up to 100)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Basic Options (up to 130)</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>https://github.com/RumenKunev</t>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <t>27 commits</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,7 +687,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -705,12 +708,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -718,20 +721,20 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -746,39 +749,45 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>50</v>
+      </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -788,8 +797,8 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
+      <c r="C11" s="5">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -800,7 +809,9 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
@@ -810,7 +821,9 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
@@ -830,7 +843,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -840,7 +855,9 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
@@ -850,7 +867,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -860,7 +879,9 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -870,7 +891,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -880,7 +903,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -890,7 +915,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -900,7 +927,9 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
@@ -920,7 +949,9 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
@@ -930,7 +961,9 @@
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
@@ -940,7 +973,9 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
@@ -960,7 +995,9 @@
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
@@ -990,7 +1027,9 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +1039,9 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1049,7 @@
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1190,7 +1231,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
